--- a/assets/excel/form_member.xlsx
+++ b/assets/excel/form_member.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sdh\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CEEF616-01A7-46AA-8B68-0660D72025E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD414858-061A-4357-AA31-1CA0A139E760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3ADCF03-CFEA-4EB4-8CB2-429D0C2ADDF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E3ADCF03-CFEA-4EB4-8CB2-429D0C2ADDF3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -105,13 +107,124 @@
   </si>
   <si>
     <t>Status Marhalah</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>SISTEM ADMINISTRASI HIDAYATULLAH</t>
+  </si>
+  <si>
+    <t>DPD</t>
+  </si>
+  <si>
+    <t>NANGROE ACEH DARUSSALAM</t>
+  </si>
+  <si>
+    <t>SUMATERA UTARA</t>
+  </si>
+  <si>
+    <t>SUMATERA BARAT</t>
+  </si>
+  <si>
+    <t>RIAU</t>
+  </si>
+  <si>
+    <t>JAMBI</t>
+  </si>
+  <si>
+    <t>SUMATERA SELATAN</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>LAMPUNG</t>
+  </si>
+  <si>
+    <t>BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>KEPULAUAN RIAU</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
+  </si>
+  <si>
+    <t>JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>DI YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA TIMUR</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN BARAT</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TENGAH</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGAH</t>
+  </si>
+  <si>
+    <t>SULAWESI SELATAN</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGGARA</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>SULAWESI BARAT</t>
+  </si>
+  <si>
+    <t>MALUKU</t>
+  </si>
+  <si>
+    <t>MALUKU UTARA</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT</t>
+  </si>
+  <si>
+    <t>PAPUA</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA BARAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +239,46 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -162,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,6 +318,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,38 +641,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA8F98A-CB3F-420A-9BFB-9493CBA4167D}">
+  <dimension ref="B2:Z5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69ECB09F-50E9-47A8-91A1-73DFAF67F8E1}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,70 +744,278 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A6DB51-1325-4903-A1F6-C579084F38B9}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>